--- a/LISTA DE EVENTOS.xlsx
+++ b/LISTA DE EVENTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1FF6E-F0FA-4C46-BE59-1C8A8835B7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70099471-7ED4-4EEE-9BA2-64DDC8EAAC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{807FADD1-AF52-49DA-9C49-34769498FBAB}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
-  <si>
-    <t>RECURSO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t xml:space="preserve">Nome do Evento </t>
   </si>
@@ -56,9 +53,6 @@
     <t>Chuva Torrencial</t>
   </si>
   <si>
-    <t>ERA</t>
-  </si>
-  <si>
     <t>Calor Intenso</t>
   </si>
   <si>
@@ -122,24 +116,9 @@
     <t>Espaço  atingida e adjacentes são alagados, impossibilitando o movimento nesta área. Duração de 3 Turnos. Se jogador estiver em Área atingida, pode fazer um teste de Escape de dificuldade 5.</t>
   </si>
   <si>
-    <t>1 MATERIA ESCURA NO LOCAL ATINGIDO</t>
-  </si>
-  <si>
     <t>Jogadores em Mapa atingido perdem todas as CONDIÇÕES</t>
   </si>
   <si>
-    <t>Glacis</t>
-  </si>
-  <si>
-    <t>Terragorn</t>
-  </si>
-  <si>
-    <t>Tenebris</t>
-  </si>
-  <si>
-    <t>Venaris</t>
-  </si>
-  <si>
     <t>Espaço atingido sofre uma uma descarga eletrica. Os ocupantes desse espaço sofrem 3 de dano.  Imadiato</t>
   </si>
   <si>
@@ -161,9 +140,6 @@
     <t>Reduz  1 ponto em ação de movimento e alcance em Mapa atingido. Duração de 3 Turnos.</t>
   </si>
   <si>
-    <t>1 MATERIA ESCURA SURTE NO LOCAL ATINGIDO.</t>
-  </si>
-  <si>
     <t>Área Incêndiada</t>
   </si>
   <si>
@@ -177,15 +153,6 @@
   </si>
   <si>
     <t>Lua Solar</t>
-  </si>
-  <si>
-    <t>1 RUBIS SURGE NO LOCAL ATINGIDO</t>
-  </si>
-  <si>
-    <t>1 RECURSO DE QUALQUER TIPO. JOGADOR ESCOLHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM RECURSO </t>
   </si>
 </sst>
 </file>
@@ -229,15 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,369 +542,258 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
